--- a/pred_ohlcv/54_21/2020-01-21 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 AMO ohlcv.xlsx
@@ -2472,7 +2472,7 @@
         <v>-7927669.5579</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-10164903.0239</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-12622506.3119</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-14096831.6189</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-13024831.5789</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-14546047.0249</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-19292549.7979</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-18585007.5399</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-15500197.8359</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-16292497.7179</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-16250118.90590001</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-18717079.38190001</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-18047494.15390001</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-20894982.51190001</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-19882312.80790001</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-22073310.69840001</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-21068639.79610002</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-23195688.35210001</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-22284727.79710001</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-22327106.60910001</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-23449961.22310001</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-26810417.10410002</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-26284919.83610002</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-25403440.54810002</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-25400818.51800002</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-26210069.92400002</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-25231303.27000002</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-26659285.33000002</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-45648169.5821</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-46889684.87010001</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-44180594.56380001</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-45201740.02980001</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-46544964.46580001</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-50016370.09111374</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-51804388.15111374</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-51749828.54291373</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-51724401.25591373</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-51648119.39391374</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-52029528.70091373</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-60008892.99961373</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-59311034.72121373</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-52591981.3210137</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-52570574.91581371</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-52778768.3320137</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-39995180.84981371</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-35994434.36108282</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-38511367.98608282</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-37591931.66908282</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-38485940.69908282</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-38485940.69908282</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-38185143.24828282</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-39621601.07128282</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-40719028.39828282</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-38922534.57528281</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-39825019.36828281</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-39117477.11028281</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-40045389.19028281</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-42087680.12228281</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-41083486.18128281</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-39791116.31928281</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-40939398.22128281</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-39435134.29928281</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-39435134.29928281</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-38405513.07128281</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-39613125.30928281</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-40651222.30028281</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-39311956.10318281</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 AMO ohlcv.xlsx
@@ -2394,7 +2394,7 @@
         <v>-8567405.7159</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-6660726.9829</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-7927669.5579</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-10164903.0239</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-12622506.3119</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-13024831.5789</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-19631580.2929</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-19292549.7979</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-18585007.5399</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-16292497.7179</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-18717079.38190001</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-20894982.51190001</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-19882312.80790001</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-21026260.98410001</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-21068639.79610002</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-21068639.79610002</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-23195688.35210001</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-22284727.79710001</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-23051600.39210001</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-22327106.60910001</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-23449961.22310001</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-25340056.23210002</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-26810417.10410002</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-25407862.33110002</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-26797519.55910002</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-25403440.54810002</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-26210069.92400002</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-25231303.27000002</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-26659285.33000002</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-25517504.51610002</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-26818350.14010002</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-28032478.14110002</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-35945256.46480002</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-45648169.5821</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-46889684.87010001</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-44180594.56380001</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-45201740.02980001</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-46544964.46580001</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-50016370.09111374</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-51804388.15111374</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-51749828.54291373</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-51724401.25591373</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-51648119.39391374</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-52029528.70091373</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-60008892.99961373</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-59311034.72121373</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-52591981.3210137</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-52570574.91581371</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-52778768.3320137</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-39995180.84981371</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-37074910.16408282</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-35875773.68808281</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-35994434.36108282</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-37295279.98508282</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-38511367.98608282</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-37591931.66908282</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-38485940.69908282</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-38485940.69908282</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-38185143.24828282</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-39621601.07128282</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-40719028.39828282</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-40003010.37828282</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-38922534.57528281</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-39825019.36828281</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-39117477.11028281</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-40045389.19028281</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-41303856.00328281</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-42087680.12228281</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-41083486.18128281</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-39791116.31928281</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-40939398.22128281</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-39435134.29928281</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-39435134.29928281</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-38405513.07128281</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-39613125.30928281</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-40651222.30028281</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-39311956.10318281</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
